--- a/plan de test.xlsx
+++ b/plan de test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Desktop\OpenClassroom\P5_Dessaint_Emmanuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA9F67-F2DD-40D7-ABC7-A129C382760D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D1BE9-1BF7-4646-AEE6-F7BC4A70BABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Problème possible</t>
-  </si>
-  <si>
-    <t>route utilisée</t>
   </si>
   <si>
     <t>fonction.js</t>
@@ -69,12 +66,6 @@
 </t>
   </si>
   <si>
-    <t>Ces fonctions permettent d'ajouter 1 ou d'enlever 1 à l'ours selectionné dans le panier</t>
-  </si>
-  <si>
-    <t>Tester sur plusieurs ours si la quantité change bien lorsqu'on clique sur les boutons vert er rouge</t>
-  </si>
-  <si>
     <t>Lorsqu'on enleve 1 ours et que c'est le dernier, cet ours pourrait rester dans le panier.</t>
   </si>
   <si>
@@ -87,28 +78,10 @@
     <t>getDescription</t>
   </si>
   <si>
-    <t>Cette fonction affiche sur la page index toutes les infromations nécessaire concernant l'ours</t>
-  </si>
-  <si>
-    <t>On peut regarder si les informations diffèrent d'un ours à l'autre</t>
-  </si>
-  <si>
-    <t>Concernant la couleur, un ours n'a qu'une seule couleur disponible, vérifier qu'il n'y a pas d'option de selection pour cet ours</t>
-  </si>
-  <si>
     <t>33 à 44</t>
   </si>
   <si>
     <t>getList</t>
-  </si>
-  <si>
-    <t>Permet d'afficher la liste des ours depuis le back end vers notre page index</t>
-  </si>
-  <si>
-    <t>Vérifier si tous les ours s'affichent bien</t>
-  </si>
-  <si>
-    <t>Il pourrait y avoir certains ours avec des caractéristiques différentes qui ne s'affichent pas</t>
   </si>
   <si>
     <t>cart.js</t>
@@ -120,13 +93,71 @@
     <t>5 à 24</t>
   </si>
   <si>
-    <t>récupère les ours présent dans le localstorage ou s'il y en a pas, informe l'utilisateur que le panier est vide</t>
+    <t>checkQty</t>
   </si>
   <si>
-    <t xml:space="preserve">Accéder au panier avec et sans ours dedans </t>
+    <t>77 à 83</t>
   </si>
   <si>
-    <t>Si l'utilisateur ajoute et supprime des ours, le panier pourrait "croire" qu'il y a des ours dedans</t>
+    <t>Le problème aurait été que l'utilisateur puisse un très grand nombre d'ours dans son panier. 
+Exemple : 1 000 000 d'ours…</t>
+  </si>
+  <si>
+    <t>Ces fonctions permettent d'ajouter 1 ou d'enlever 1 à l'ours selectionné dans le panier.</t>
+  </si>
+  <si>
+    <t>Tester sur plusieurs ours si la quantité change bien lorsqu'on clique sur les boutons vert er rouge.</t>
+  </si>
+  <si>
+    <t>Cette fonction affiche sur la page index toutes les infromations nécessaire concernant l'ours.</t>
+  </si>
+  <si>
+    <t>On peut regarder si les informations diffèrent d'un ours à l'autre.</t>
+  </si>
+  <si>
+    <t>Concernant la couleur, un ours n'a qu'une seule couleur disponible, vérifier qu'il n'y a pas d'option de selection pour cet ours.</t>
+  </si>
+  <si>
+    <t>Permet d'afficher la liste des ours depuis le back end vers notre page index.</t>
+  </si>
+  <si>
+    <t>Vérifier si tous les ours s'affichent bien.</t>
+  </si>
+  <si>
+    <t>Il pourrait y avoir certains ours avec des caractéristiques différentes qui ne s'affichent pas.</t>
+  </si>
+  <si>
+    <t>récupère les ours présent dans le localstorage ou s'il y en a pas, informe l'utilisateur que le panier est vide.</t>
+  </si>
+  <si>
+    <t>Accéder au panier avec et sans ours dedans .</t>
+  </si>
+  <si>
+    <t>Si l'utilisateur ajoute et supprime des ours, le panier pourrait "croire" qu'il y a des ours dedans.</t>
+  </si>
+  <si>
+    <t>Vérifie la quantité indiqué par l'utilisateur sur la page produit et limiter à 100 pour plus de réalisme.</t>
+  </si>
+  <si>
+    <t>Ajouter le produit au panier en mettant des nombres bien différents.</t>
+  </si>
+  <si>
+    <t>displayCartTable</t>
+  </si>
+  <si>
+    <t>149 à 172</t>
+  </si>
+  <si>
+    <t>fonction</t>
+  </si>
+  <si>
+    <t>Affiche le contenu du panier dans un tableau. Pour chaque article, on crée une nouvelle ligne.</t>
+  </si>
+  <si>
+    <t>Vérifier si le tableau s'affiche bien peut importe le nombre d'ours dans le panier.</t>
+  </si>
+  <si>
+    <t>Le tableau aurait doit bien prendre en compte les couleurs afin d'éviter les répétitions.</t>
   </si>
 </sst>
 </file>
@@ -424,10 +455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -460,9 +491,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -483,115 +512,145 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
+    </row>
+    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="5"/>
@@ -618,10 +677,10 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+    <row r="14" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
@@ -643,7 +702,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="4:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -768,7 +827,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -5538,11 +5597,6 @@
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
     </row>
-    <row r="998" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
